--- a/3d61125_1.02 TB.xlsx
+++ b/3d61125_1.02 TB.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1000300665\Desktop\FVT\Performance_Benchmark_Automaton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5759363-EB50-40EF-9492-48A33F2D7A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="370" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,9 +136,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,15 +197,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -230,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,9 +298,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,6 +350,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,482 +543,501 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>23.3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>3060</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>336.04</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>269</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>310</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>1369</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>5276</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>5473</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>6390</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>6456</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>27.3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>3576</v>
       </c>
-      <c r="I7" s="1">
-        <v>290.1</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="J7" s="2">
         <v>297</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>322</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>408</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>441</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>465</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>1074</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <v>1106</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1">
-        <v>6.924</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="2">
+        <v>6.9240000000000004</v>
+      </c>
+      <c r="H8" s="2">
         <v>908</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>1123.03</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>1237</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>1385</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>3916</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>7111</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>7635</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>7767</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <v>7767</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>27.5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>3610</v>
       </c>
-      <c r="I9" s="1">
-        <v>287.41</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <v>287.41000000000003</v>
+      </c>
+      <c r="J9" s="2">
         <v>297</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>322</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>396</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>498</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>750</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>1106</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <v>1156</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>136</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>556</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>232.73</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>93</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>215</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>1156</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>17695</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>20317</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>27132</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <v>27395</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>275</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1127</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>114.77</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>101</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>133</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>273</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>367</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>461</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>832</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <v>922</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="2">
+        <v>88.6</v>
+      </c>
+      <c r="H12" s="2">
         <v>363</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>10.04978</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>10</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>10</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>54</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>127</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>1811</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>5735</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="2">
         <v>11207</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>12.3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>50.4</v>
       </c>
-      <c r="I13" s="1">
-        <v>80.15000000000001</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="J13" s="2">
         <v>89</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>90</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>93</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>102</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <v>188</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>594</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <v>816</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3d61125_1.02 TB.xlsx
+++ b/3d61125_1.02 TB.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1000300665\Desktop\FVT\Performance_Benchmark_Automaton\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5759363-EB50-40EF-9492-48A33F2D7A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="370" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -136,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,14 +206,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -266,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,27 +284,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,24 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,37 +493,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -636,7 +568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,10 +591,10 @@
         <v>23.3</v>
       </c>
       <c r="H6" s="2">
-        <v>3060</v>
+        <v>3054</v>
       </c>
       <c r="I6" s="2">
-        <v>336.04</v>
+        <v>336.35</v>
       </c>
       <c r="J6" s="2">
         <v>269</v>
@@ -671,22 +603,22 @@
         <v>310</v>
       </c>
       <c r="L6" s="2">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="M6" s="2">
-        <v>5276</v>
+        <v>4948</v>
       </c>
       <c r="N6" s="2">
+        <v>5145</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5407</v>
+      </c>
+      <c r="P6" s="2">
         <v>5473</v>
       </c>
-      <c r="O6" s="2">
-        <v>6390</v>
-      </c>
-      <c r="P6" s="2">
-        <v>6456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -706,37 +638,37 @@
         <v>32</v>
       </c>
       <c r="G7" s="2">
-        <v>27.3</v>
+        <v>29.9</v>
       </c>
       <c r="H7" s="2">
-        <v>3576</v>
+        <v>3915</v>
       </c>
       <c r="I7" s="2">
-        <v>290.10000000000002</v>
+        <v>264.78</v>
       </c>
       <c r="J7" s="2">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="K7" s="2">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="L7" s="2">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="M7" s="2">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="N7" s="2">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="O7" s="2">
-        <v>1074</v>
+        <v>816</v>
       </c>
       <c r="P7" s="2">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,37 +688,37 @@
         <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>6.9240000000000004</v>
+        <v>23.4</v>
       </c>
       <c r="H8" s="2">
-        <v>908</v>
+        <v>3072</v>
       </c>
       <c r="I8" s="2">
-        <v>1123.03</v>
+        <v>334.5</v>
       </c>
       <c r="J8" s="2">
-        <v>1237</v>
+        <v>269</v>
       </c>
       <c r="K8" s="2">
-        <v>1385</v>
+        <v>310</v>
       </c>
       <c r="L8" s="2">
-        <v>3916</v>
+        <v>1303</v>
       </c>
       <c r="M8" s="2">
-        <v>7111</v>
+        <v>5342</v>
       </c>
       <c r="N8" s="2">
-        <v>7635</v>
+        <v>5473</v>
       </c>
       <c r="O8" s="2">
-        <v>7767</v>
+        <v>5538</v>
       </c>
       <c r="P8" s="2">
-        <v>7767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -806,37 +738,37 @@
         <v>32</v>
       </c>
       <c r="G9" s="2">
-        <v>27.5</v>
+        <v>35.3</v>
       </c>
       <c r="H9" s="2">
-        <v>3610</v>
+        <v>4629</v>
       </c>
       <c r="I9" s="2">
-        <v>287.41000000000003</v>
+        <v>223.5</v>
       </c>
       <c r="J9" s="2">
+        <v>265</v>
+      </c>
+      <c r="K9" s="2">
+        <v>265</v>
+      </c>
+      <c r="L9" s="2">
         <v>297</v>
       </c>
-      <c r="K9" s="2">
-        <v>322</v>
-      </c>
-      <c r="L9" s="2">
-        <v>396</v>
-      </c>
       <c r="M9" s="2">
-        <v>498</v>
+        <v>302</v>
       </c>
       <c r="N9" s="2">
-        <v>750</v>
+        <v>644</v>
       </c>
       <c r="O9" s="2">
-        <v>1106</v>
+        <v>824</v>
       </c>
       <c r="P9" s="2">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -856,37 +788,37 @@
         <v>32</v>
       </c>
       <c r="G10" s="2">
-        <v>136</v>
+        <v>447</v>
       </c>
       <c r="H10" s="2">
-        <v>556</v>
+        <v>1830</v>
       </c>
       <c r="I10" s="2">
-        <v>232.73</v>
+        <v>70.11</v>
       </c>
       <c r="J10" s="2">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="K10" s="2">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="L10" s="2">
-        <v>1156</v>
+        <v>453</v>
       </c>
       <c r="M10" s="2">
-        <v>17695</v>
+        <v>2212</v>
       </c>
       <c r="N10" s="2">
-        <v>20317</v>
+        <v>6259</v>
       </c>
       <c r="O10" s="2">
-        <v>27132</v>
+        <v>10683</v>
       </c>
       <c r="P10" s="2">
-        <v>27395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>10683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -906,37 +838,37 @@
         <v>32</v>
       </c>
       <c r="G11" s="2">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="H11" s="2">
-        <v>1127</v>
+        <v>1465</v>
       </c>
       <c r="I11" s="2">
-        <v>114.77</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="J11" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="L11" s="2">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="M11" s="2">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="N11" s="2">
-        <v>461</v>
+        <v>351</v>
       </c>
       <c r="O11" s="2">
-        <v>832</v>
+        <v>725</v>
       </c>
       <c r="P11" s="2">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,13 +888,13 @@
         <v>32</v>
       </c>
       <c r="G12" s="2">
-        <v>88.6</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H12" s="2">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="I12" s="2">
-        <v>10.04978</v>
+        <v>8.899899999999999</v>
       </c>
       <c r="J12" s="2">
         <v>10</v>
@@ -971,22 +903,22 @@
         <v>10</v>
       </c>
       <c r="L12" s="2">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M12" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="N12" s="2">
-        <v>1811</v>
+        <v>2057</v>
       </c>
       <c r="O12" s="2">
-        <v>5735</v>
+        <v>2868</v>
       </c>
       <c r="P12" s="2">
-        <v>11207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1006,38 +938,37 @@
         <v>32</v>
       </c>
       <c r="G13" s="2">
-        <v>12.3</v>
+        <v>15.9</v>
       </c>
       <c r="H13" s="2">
-        <v>50.4</v>
+        <v>65.3</v>
       </c>
       <c r="I13" s="2">
-        <v>80.150000000000006</v>
+        <v>61.61</v>
       </c>
       <c r="J13" s="2">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="M13" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N13" s="2">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="O13" s="2">
-        <v>594</v>
+        <v>734</v>
       </c>
       <c r="P13" s="2">
-        <v>816</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3d61125_1.02 TB.xlsx
+++ b/3d61125_1.02 TB.xlsx
@@ -591,16 +591,16 @@
         <v>23.3</v>
       </c>
       <c r="H6" s="2">
-        <v>3054</v>
+        <v>3058</v>
       </c>
       <c r="I6" s="2">
-        <v>336.35</v>
+        <v>335.72</v>
       </c>
       <c r="J6" s="2">
         <v>269</v>
       </c>
       <c r="K6" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L6" s="2">
         <v>1352</v>
@@ -609,13 +609,13 @@
         <v>4948</v>
       </c>
       <c r="N6" s="2">
-        <v>5145</v>
+        <v>5211</v>
       </c>
       <c r="O6" s="2">
-        <v>5407</v>
+        <v>5276</v>
       </c>
       <c r="P6" s="2">
-        <v>5473</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -638,13 +638,13 @@
         <v>32</v>
       </c>
       <c r="G7" s="2">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
-        <v>3915</v>
+        <v>3936</v>
       </c>
       <c r="I7" s="2">
-        <v>264.78</v>
+        <v>263.67</v>
       </c>
       <c r="J7" s="2">
         <v>265</v>
@@ -653,19 +653,19 @@
         <v>265</v>
       </c>
       <c r="L7" s="2">
+        <v>297</v>
+      </c>
+      <c r="M7" s="2">
         <v>306</v>
       </c>
-      <c r="M7" s="2">
-        <v>330</v>
-      </c>
       <c r="N7" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O7" s="2">
-        <v>816</v>
+        <v>750</v>
       </c>
       <c r="P7" s="2">
-        <v>881</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -691,16 +691,16 @@
         <v>23.4</v>
       </c>
       <c r="H8" s="2">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="I8" s="2">
-        <v>334.5</v>
+        <v>334.85</v>
       </c>
       <c r="J8" s="2">
         <v>269</v>
       </c>
       <c r="K8" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L8" s="2">
         <v>1303</v>
@@ -712,10 +712,10 @@
         <v>5473</v>
       </c>
       <c r="O8" s="2">
-        <v>5538</v>
+        <v>5800</v>
       </c>
       <c r="P8" s="2">
-        <v>5538</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -741,10 +741,10 @@
         <v>35.3</v>
       </c>
       <c r="H9" s="2">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="I9" s="2">
-        <v>223.5</v>
+        <v>223.72</v>
       </c>
       <c r="J9" s="2">
         <v>265</v>
@@ -759,13 +759,13 @@
         <v>302</v>
       </c>
       <c r="N9" s="2">
-        <v>644</v>
+        <v>330</v>
       </c>
       <c r="O9" s="2">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="P9" s="2">
-        <v>889</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -788,34 +788,34 @@
         <v>32</v>
       </c>
       <c r="G10" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H10" s="2">
-        <v>1830</v>
+        <v>1842</v>
       </c>
       <c r="I10" s="2">
-        <v>70.11</v>
+        <v>69.66</v>
       </c>
       <c r="J10" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="M10" s="2">
-        <v>2212</v>
+        <v>2278</v>
       </c>
       <c r="N10" s="2">
-        <v>6259</v>
+        <v>6194</v>
       </c>
       <c r="O10" s="2">
-        <v>10683</v>
+        <v>7111</v>
       </c>
       <c r="P10" s="2">
-        <v>10683</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -838,34 +838,34 @@
         <v>32</v>
       </c>
       <c r="G11" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H11" s="2">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="I11" s="2">
-        <v>87.93000000000001</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="J11" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2">
         <v>99</v>
       </c>
       <c r="L11" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M11" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="N11" s="2">
         <v>351</v>
       </c>
       <c r="O11" s="2">
-        <v>725</v>
+        <v>824</v>
       </c>
       <c r="P11" s="2">
-        <v>857</v>
+        <v>979</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -888,13 +888,13 @@
         <v>32</v>
       </c>
       <c r="G12" s="2">
-        <v>98.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H12" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I12" s="2">
-        <v>8.899899999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J12" s="2">
         <v>10</v>
@@ -903,19 +903,19 @@
         <v>10</v>
       </c>
       <c r="L12" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N12" s="2">
-        <v>2057</v>
+        <v>2147</v>
       </c>
       <c r="O12" s="2">
-        <v>2868</v>
+        <v>2835</v>
       </c>
       <c r="P12" s="2">
-        <v>4686</v>
+        <v>10421</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -938,34 +938,34 @@
         <v>32</v>
       </c>
       <c r="G13" s="2">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="H13" s="2">
-        <v>65.3</v>
+        <v>64.8</v>
       </c>
       <c r="I13" s="2">
-        <v>61.61</v>
+        <v>62.08</v>
       </c>
       <c r="J13" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2">
         <v>64</v>
       </c>
       <c r="L13" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M13" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N13" s="2">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="O13" s="2">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="P13" s="2">
-        <v>734</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/3d61125_1.02 TB.xlsx
+++ b/3d61125_1.02 TB.xlsx
@@ -591,31 +591,31 @@
         <v>23.3</v>
       </c>
       <c r="H6" s="2">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="I6" s="2">
-        <v>335.72</v>
+        <v>336.04</v>
       </c>
       <c r="J6" s="2">
         <v>269</v>
       </c>
       <c r="K6" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L6" s="2">
-        <v>1352</v>
+        <v>1369</v>
       </c>
       <c r="M6" s="2">
-        <v>4948</v>
+        <v>5276</v>
       </c>
       <c r="N6" s="2">
-        <v>5211</v>
+        <v>5473</v>
       </c>
       <c r="O6" s="2">
-        <v>5276</v>
+        <v>6390</v>
       </c>
       <c r="P6" s="2">
-        <v>5342</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -638,34 +638,34 @@
         <v>32</v>
       </c>
       <c r="G7" s="2">
-        <v>30</v>
+        <v>27.3</v>
       </c>
       <c r="H7" s="2">
-        <v>3936</v>
+        <v>3576</v>
       </c>
       <c r="I7" s="2">
-        <v>263.67</v>
+        <v>290.1</v>
       </c>
       <c r="J7" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="K7" s="2">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="L7" s="2">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="M7" s="2">
-        <v>306</v>
+        <v>441</v>
       </c>
       <c r="N7" s="2">
-        <v>367</v>
+        <v>465</v>
       </c>
       <c r="O7" s="2">
-        <v>750</v>
+        <v>1074</v>
       </c>
       <c r="P7" s="2">
-        <v>799</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -688,34 +688,34 @@
         <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>23.4</v>
+        <v>6.924</v>
       </c>
       <c r="H8" s="2">
-        <v>3069</v>
+        <v>908</v>
       </c>
       <c r="I8" s="2">
-        <v>334.85</v>
+        <v>1123.03</v>
       </c>
       <c r="J8" s="2">
-        <v>269</v>
+        <v>1237</v>
       </c>
       <c r="K8" s="2">
-        <v>306</v>
+        <v>1385</v>
       </c>
       <c r="L8" s="2">
-        <v>1303</v>
+        <v>3916</v>
       </c>
       <c r="M8" s="2">
-        <v>5342</v>
+        <v>7111</v>
       </c>
       <c r="N8" s="2">
-        <v>5473</v>
+        <v>7635</v>
       </c>
       <c r="O8" s="2">
-        <v>5800</v>
+        <v>7767</v>
       </c>
       <c r="P8" s="2">
-        <v>5800</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -738,34 +738,34 @@
         <v>32</v>
       </c>
       <c r="G9" s="2">
-        <v>35.3</v>
+        <v>27.5</v>
       </c>
       <c r="H9" s="2">
-        <v>4630</v>
+        <v>3610</v>
       </c>
       <c r="I9" s="2">
-        <v>223.72</v>
+        <v>287.41</v>
       </c>
       <c r="J9" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="K9" s="2">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="L9" s="2">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="M9" s="2">
-        <v>302</v>
+        <v>498</v>
       </c>
       <c r="N9" s="2">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="O9" s="2">
-        <v>799</v>
+        <v>1106</v>
       </c>
       <c r="P9" s="2">
-        <v>865</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -788,34 +788,34 @@
         <v>32</v>
       </c>
       <c r="G10" s="2">
-        <v>450</v>
+        <v>136</v>
       </c>
       <c r="H10" s="2">
-        <v>1842</v>
+        <v>556</v>
       </c>
       <c r="I10" s="2">
-        <v>69.66</v>
+        <v>232.73</v>
       </c>
       <c r="J10" s="2">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="K10" s="2">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="L10" s="2">
-        <v>433</v>
+        <v>1156</v>
       </c>
       <c r="M10" s="2">
-        <v>2278</v>
+        <v>17695</v>
       </c>
       <c r="N10" s="2">
-        <v>6194</v>
+        <v>20317</v>
       </c>
       <c r="O10" s="2">
-        <v>7111</v>
+        <v>27132</v>
       </c>
       <c r="P10" s="2">
-        <v>7111</v>
+        <v>27395</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -838,34 +838,34 @@
         <v>32</v>
       </c>
       <c r="G11" s="2">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="H11" s="2">
-        <v>1463</v>
+        <v>1127</v>
       </c>
       <c r="I11" s="2">
-        <v>88.01000000000001</v>
+        <v>114.77</v>
       </c>
       <c r="J11" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K11" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="L11" s="2">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="M11" s="2">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="N11" s="2">
-        <v>351</v>
+        <v>461</v>
       </c>
       <c r="O11" s="2">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="P11" s="2">
-        <v>979</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -888,13 +888,13 @@
         <v>32</v>
       </c>
       <c r="G12" s="2">
-        <v>95.90000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H12" s="2">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="I12" s="2">
-        <v>9.140000000000001</v>
+        <v>10.04978</v>
       </c>
       <c r="J12" s="2">
         <v>10</v>
@@ -903,19 +903,19 @@
         <v>10</v>
       </c>
       <c r="L12" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2">
-        <v>2147</v>
+        <v>1811</v>
       </c>
       <c r="O12" s="2">
-        <v>2835</v>
+        <v>5735</v>
       </c>
       <c r="P12" s="2">
-        <v>10421</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -938,34 +938,34 @@
         <v>32</v>
       </c>
       <c r="G13" s="2">
-        <v>15.8</v>
+        <v>12.3</v>
       </c>
       <c r="H13" s="2">
-        <v>64.8</v>
+        <v>50.4</v>
       </c>
       <c r="I13" s="2">
-        <v>62.08</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="L13" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M13" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="N13" s="2">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O13" s="2">
-        <v>701</v>
+        <v>594</v>
       </c>
       <c r="P13" s="2">
-        <v>701</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/3d61125_1.02 TB.xlsx
+++ b/3d61125_1.02 TB.xlsx
@@ -37,10 +37,10 @@
     <t>BURST SEQUENTIAL READ</t>
   </si>
   <si>
-    <t>SUBSTAIN SEQUENTIAL WRITE</t>
-  </si>
-  <si>
-    <t>SUBSTAIN SEQUENTIAL READ</t>
+    <t>SUSTAIN SEQUENTIAL WRITE</t>
+  </si>
+  <si>
+    <t>SUSTAIN SEQUENTIAL READ</t>
   </si>
   <si>
     <t>BURST RANDOM WRITE</t>
